--- a/Investigacion/Marketing/4P5C/Costos/Calculo de costos.xlsx
+++ b/Investigacion/Marketing/4P5C/Costos/Calculo de costos.xlsx
@@ -306,6 +306,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,8 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -326,20 +334,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,7 +637,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -648,49 +648,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="10">
         <f>E5+E10</f>
-        <v>23100</v>
-      </c>
-      <c r="G1" s="12" t="s">
+        <v>23700</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="16">
+      <c r="K1" s="10">
         <f>I3+I5</f>
         <v>6800</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="G2" s="17" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="G2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="11">
         <v>30</v>
       </c>
       <c r="G3" s="1"/>
@@ -702,27 +702,27 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="12">
         <v>270</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="10" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <f>C3*C4</f>
         <v>8100</v>
       </c>
@@ -735,51 +735,53 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11">
         <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12">
         <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="10" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13">
+        <v>600</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="8">
         <f>C6+C7+C8+C9+C10</f>
-        <v>15000</v>
+        <v>15600</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -791,76 +793,76 @@
       <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="10">
         <f>(C14*C15)+(C16*C17)+(C18*C19)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="11">
         <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="12">
         <v>3000</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="12">
         <v>6000</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="13">
         <v>3</v>
       </c>
     </row>
@@ -869,12 +871,12 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="23" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="16">
         <f>E1+K1+E13</f>
-        <v>53900</v>
+        <v>54500</v>
       </c>
     </row>
   </sheetData>

--- a/Investigacion/Marketing/4P5C/Costos/Calculo de costos.xlsx
+++ b/Investigacion/Marketing/4P5C/Costos/Calculo de costos.xlsx
@@ -97,8 +97,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -298,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -340,6 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,7 +646,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -753,20 +762,24 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="A10" s="13" t="s">
